--- a/data/trans_orig/IP18B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E27D6AF-4AC8-425A-A1A2-D10A2706B699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8150C8E4-7C67-48CE-B428-FF6E2803D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4947C7-8C69-4BA9-BED1-46BD9C5F159E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E769C18C-DF52-48C1-A4A3-2972204A2509}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -101,6 +101,36 @@
     <t>3,58%</t>
   </si>
   <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
     <t>Otros</t>
   </si>
   <si>
@@ -131,39 +161,93 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>Pediatria</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -194,6 +278,33 @@
     <t>48,43%</t>
   </si>
   <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
     <t>8,19%</t>
   </si>
   <si>
@@ -221,117 +332,6 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
     <t>19,55%</t>
   </si>
   <si>
@@ -359,6 +359,33 @@
     <t>21,44%</t>
   </si>
   <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
     <t>5,47%</t>
   </si>
   <si>
@@ -383,33 +410,6 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
   </si>
   <si>
@@ -440,6 +440,33 @@
     <t>4,06%</t>
   </si>
   <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
     <t>3,14%</t>
   </si>
   <si>
@@ -464,31 +491,85 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>36,31%</t>
@@ -518,6 +599,33 @@
     <t>39,41%</t>
   </si>
   <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
     <t>10,5%</t>
   </si>
   <si>
@@ -545,114 +653,6 @@
     <t>11,76%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
     <t>15,54%</t>
   </si>
   <si>
@@ -680,6 +680,33 @@
     <t>17,54%</t>
   </si>
   <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
     <t>7,08%</t>
   </si>
   <si>
@@ -701,33 +728,6 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
   </si>
   <si>
@@ -758,6 +758,33 @@
     <t>8,64%</t>
   </si>
   <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
@@ -782,31 +809,85 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>35,63%</t>
@@ -836,6 +917,33 @@
     <t>41,57%</t>
   </si>
   <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
     <t>11,32%</t>
   </si>
   <si>
@@ -863,114 +971,6 @@
     <t>10,48%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
     <t>20,72%</t>
   </si>
   <si>
@@ -998,6 +998,33 @@
     <t>22,65%</t>
   </si>
   <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
     <t>6,02%</t>
   </si>
   <si>
@@ -1019,33 +1046,6 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
@@ -1067,6 +1067,27 @@
     <t>9,41%</t>
   </si>
   <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
     <t>2,16%</t>
   </si>
   <si>
@@ -1082,25 +1103,73 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>27,59%</t>
@@ -1130,6 +1199,33 @@
     <t>32,23%</t>
   </si>
   <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
     <t>14,2%</t>
   </si>
   <si>
@@ -1157,102 +1253,6 @@
     <t>23,68%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
     <t>17,03%</t>
   </si>
   <si>
@@ -1277,6 +1277,33 @@
     <t>18,67%</t>
   </si>
   <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
     <t>9,93%</t>
   </si>
   <si>
@@ -1296,33 +1323,6 @@
   </si>
   <si>
     <t>14,57%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
   </si>
 </sst>
 </file>
@@ -1714,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE9C3B3-8441-4CFA-87A2-C3FD09318AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0903117D-77C2-4A22-AEC7-B5D4A24E92F0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1883,10 +1883,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="D5" s="7">
-        <v>3810</v>
+        <v>192290</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1898,10 +1898,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="I5" s="7">
-        <v>6189</v>
+        <v>187430</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1913,10 +1913,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>572</v>
       </c>
       <c r="N5" s="7">
-        <v>9999</v>
+        <v>379721</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1934,10 +1934,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>288</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>192290</v>
+        <v>3810</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1949,10 +1949,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>284</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>187430</v>
+        <v>6189</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1964,10 +1964,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>572</v>
+        <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>379721</v>
+        <v>9999</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2038,10 +2038,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>100230</v>
+        <v>17606</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2053,10 +2053,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>97375</v>
+        <v>14196</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2068,10 +2068,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>197604</v>
+        <v>31802</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2089,10 +2089,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="D9" s="7">
-        <v>18484</v>
+        <v>170040</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2104,10 +2104,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="I9" s="7">
-        <v>19310</v>
+        <v>158345</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2119,10 +2119,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>57</v>
+        <v>491</v>
       </c>
       <c r="N9" s="7">
-        <v>37794</v>
+        <v>328386</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2140,10 +2140,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>107013</v>
+        <v>11961</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2155,10 +2155,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>101287</v>
+        <v>10339</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2170,10 +2170,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>208299</v>
+        <v>22301</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2191,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>225727</v>
+        <v>199608</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2206,10 +2206,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="I11" s="7">
-        <v>217972</v>
+        <v>182881</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2221,10 +2221,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>661</v>
+        <v>572</v>
       </c>
       <c r="N11" s="7">
-        <v>443698</v>
+        <v>382489</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2244,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D12" s="7">
-        <v>17606</v>
+        <v>100230</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2259,10 +2259,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I12" s="7">
-        <v>14196</v>
+        <v>97375</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2274,10 +2274,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="N12" s="7">
-        <v>31802</v>
+        <v>197604</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2295,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>11961</v>
+        <v>107013</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2310,10 +2310,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I13" s="7">
-        <v>10339</v>
+        <v>101287</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2325,10 +2325,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="N13" s="7">
-        <v>22301</v>
+        <v>208299</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2346,10 +2346,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>257</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>170040</v>
+        <v>18484</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2361,10 +2361,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>158345</v>
+        <v>19310</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2376,10 +2376,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>491</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>328386</v>
+        <v>37794</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2397,10 +2397,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="D15" s="7">
-        <v>199608</v>
+        <v>225727</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2412,10 +2412,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="I15" s="7">
-        <v>182881</v>
+        <v>217972</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2427,10 +2427,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>572</v>
+        <v>661</v>
       </c>
       <c r="N15" s="7">
-        <v>382489</v>
+        <v>443698</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2501,10 +2501,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>706</v>
       </c>
       <c r="D17" s="7">
-        <v>34256</v>
+        <v>469344</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -2516,34 +2516,34 @@
         <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>668</v>
       </c>
       <c r="I17" s="7">
-        <v>35838</v>
+        <v>447062</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>107</v>
+        <v>1374</v>
       </c>
       <c r="N17" s="7">
-        <v>70094</v>
+        <v>916405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,28 +2552,28 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>706</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>469344</v>
+        <v>34256</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>668</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7">
-        <v>447062</v>
+        <v>35838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>118</v>
@@ -2582,10 +2582,10 @@
         <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>1374</v>
+        <v>107</v>
       </c>
       <c r="N18" s="7">
-        <v>916405</v>
+        <v>70094</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>120</v>
@@ -2664,7 +2664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04AE372-DB95-43F0-83C8-659B693428AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9FEBC6-B001-4E77-9278-216CCD763918}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,10 +2833,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>314</v>
       </c>
       <c r="D5" s="7">
-        <v>7360</v>
+        <v>222792</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>133</v>
@@ -2848,34 +2848,34 @@
         <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="I5" s="7">
-        <v>3751</v>
+        <v>206329</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>624</v>
       </c>
       <c r="N5" s="7">
-        <v>11112</v>
+        <v>429121</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,40 +2884,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>222792</v>
+        <v>7360</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
-        <v>310</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>206329</v>
+        <v>3751</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>146</v>
       </c>
       <c r="M6" s="7">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>429121</v>
+        <v>11112</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>147</v>
@@ -2988,10 +2988,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>91628</v>
+        <v>15586</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>150</v>
@@ -3003,10 +3003,10 @@
         <v>152</v>
       </c>
       <c r="H8" s="7">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>82788</v>
+        <v>18227</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>153</v>
@@ -3018,10 +3018,10 @@
         <v>155</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>174416</v>
+        <v>33813</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>156</v>
@@ -3039,10 +3039,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>26489</v>
+        <v>198207</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>159</v>
@@ -3054,10 +3054,10 @@
         <v>161</v>
       </c>
       <c r="H9" s="7">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="I9" s="7">
-        <v>19845</v>
+        <v>189138</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>162</v>
@@ -3069,10 +3069,10 @@
         <v>164</v>
       </c>
       <c r="M9" s="7">
-        <v>68</v>
+        <v>540</v>
       </c>
       <c r="N9" s="7">
-        <v>46334</v>
+        <v>387344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>165</v>
@@ -3090,10 +3090,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>134211</v>
+        <v>16950</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>168</v>
@@ -3105,10 +3105,10 @@
         <v>170</v>
       </c>
       <c r="H10" s="7">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>131906</v>
+        <v>10982</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>171</v>
@@ -3120,10 +3120,10 @@
         <v>173</v>
       </c>
       <c r="M10" s="7">
-        <v>387</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>266117</v>
+        <v>27933</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>174</v>
@@ -3141,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>252329</v>
+        <v>230743</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3156,10 +3156,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="I11" s="7">
-        <v>234538</v>
+        <v>218347</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3171,10 +3171,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>704</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>486868</v>
+        <v>449090</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3194,10 +3194,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="D12" s="7">
-        <v>15586</v>
+        <v>91628</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>177</v>
@@ -3209,10 +3209,10 @@
         <v>179</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="I12" s="7">
-        <v>18227</v>
+        <v>82788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>180</v>
@@ -3224,10 +3224,10 @@
         <v>182</v>
       </c>
       <c r="M12" s="7">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="N12" s="7">
-        <v>33813</v>
+        <v>174416</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>183</v>
@@ -3245,10 +3245,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>16950</v>
+        <v>134211</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>186</v>
@@ -3260,10 +3260,10 @@
         <v>188</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="I13" s="7">
-        <v>10982</v>
+        <v>131906</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>189</v>
@@ -3275,10 +3275,10 @@
         <v>191</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>387</v>
       </c>
       <c r="N13" s="7">
-        <v>27933</v>
+        <v>266117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>192</v>
@@ -3296,10 +3296,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>198207</v>
+        <v>26489</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>195</v>
@@ -3311,10 +3311,10 @@
         <v>197</v>
       </c>
       <c r="H14" s="7">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>189138</v>
+        <v>19845</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>198</v>
@@ -3326,10 +3326,10 @@
         <v>200</v>
       </c>
       <c r="M14" s="7">
-        <v>540</v>
+        <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>387344</v>
+        <v>46334</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>201</v>
@@ -3347,10 +3347,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="D15" s="7">
-        <v>230743</v>
+        <v>252329</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3362,10 +3362,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="I15" s="7">
-        <v>218347</v>
+        <v>234538</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3377,10 +3377,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="N15" s="7">
-        <v>449090</v>
+        <v>486868</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3451,49 +3451,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>73</v>
+        <v>787</v>
       </c>
       <c r="D17" s="7">
-        <v>50800</v>
+        <v>555210</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>764</v>
       </c>
       <c r="I17" s="7">
-        <v>34578</v>
+        <v>527372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
-        <v>123</v>
+        <v>1551</v>
       </c>
       <c r="N17" s="7">
-        <v>85378</v>
+        <v>1082583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,25 +3502,25 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>787</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>555210</v>
+        <v>50800</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
-        <v>764</v>
+        <v>50</v>
       </c>
       <c r="I18" s="7">
-        <v>527372</v>
+        <v>34578</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>223</v>
@@ -3532,10 +3532,10 @@
         <v>225</v>
       </c>
       <c r="M18" s="7">
-        <v>1551</v>
+        <v>123</v>
       </c>
       <c r="N18" s="7">
-        <v>1082583</v>
+        <v>85378</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>226</v>
@@ -3614,7 +3614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DB2782-4DC4-4853-8C65-FBB6E2E355A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1951881-39C5-49B9-BBDB-EE345091E8AF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,10 +3783,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>275</v>
       </c>
       <c r="D5" s="7">
-        <v>4525</v>
+        <v>181783</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>239</v>
@@ -3798,34 +3798,34 @@
         <v>241</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>4400</v>
+        <v>181093</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>569</v>
       </c>
       <c r="N5" s="7">
-        <v>8925</v>
+        <v>362877</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,40 +3834,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>181783</v>
+        <v>4525</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
-        <v>294</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>181093</v>
+        <v>4400</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>252</v>
       </c>
       <c r="M6" s="7">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>362877</v>
+        <v>8925</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>253</v>
@@ -3938,10 +3938,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>87821</v>
+        <v>35727</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>256</v>
@@ -3953,10 +3953,10 @@
         <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>96644</v>
+        <v>30433</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>259</v>
@@ -3968,10 +3968,10 @@
         <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="N8" s="7">
-        <v>184465</v>
+        <v>66160</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>262</v>
@@ -3989,10 +3989,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="D9" s="7">
-        <v>27905</v>
+        <v>182409</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>265</v>
@@ -4004,10 +4004,10 @@
         <v>267</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I9" s="7">
-        <v>12261</v>
+        <v>171492</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>268</v>
@@ -4019,10 +4019,10 @@
         <v>270</v>
       </c>
       <c r="M9" s="7">
-        <v>55</v>
+        <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>40165</v>
+        <v>353900</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>271</v>
@@ -4040,10 +4040,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>130768</v>
+        <v>8230</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>274</v>
@@ -4055,10 +4055,10 @@
         <v>276</v>
       </c>
       <c r="H10" s="7">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>130803</v>
+        <v>13007</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>277</v>
@@ -4070,10 +4070,10 @@
         <v>279</v>
       </c>
       <c r="M10" s="7">
-        <v>361</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>261571</v>
+        <v>21237</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>280</v>
@@ -4091,10 +4091,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D11" s="7">
-        <v>246493</v>
+        <v>226366</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4106,10 +4106,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I11" s="7">
-        <v>239708</v>
+        <v>214932</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4121,10 +4121,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="N11" s="7">
-        <v>486201</v>
+        <v>441298</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4144,10 +4144,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D12" s="7">
-        <v>35727</v>
+        <v>87821</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>283</v>
@@ -4159,10 +4159,10 @@
         <v>285</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="I12" s="7">
-        <v>30433</v>
+        <v>96644</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>286</v>
@@ -4174,10 +4174,10 @@
         <v>288</v>
       </c>
       <c r="M12" s="7">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="N12" s="7">
-        <v>66160</v>
+        <v>184465</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>289</v>
@@ -4195,10 +4195,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>8230</v>
+        <v>130768</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>292</v>
@@ -4210,10 +4210,10 @@
         <v>294</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="I13" s="7">
-        <v>13007</v>
+        <v>130803</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>295</v>
@@ -4225,10 +4225,10 @@
         <v>297</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="N13" s="7">
-        <v>21237</v>
+        <v>261571</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>298</v>
@@ -4246,10 +4246,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>182409</v>
+        <v>27905</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>301</v>
@@ -4261,10 +4261,10 @@
         <v>303</v>
       </c>
       <c r="H14" s="7">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>171492</v>
+        <v>12261</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>304</v>
@@ -4276,10 +4276,10 @@
         <v>306</v>
       </c>
       <c r="M14" s="7">
-        <v>530</v>
+        <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>353900</v>
+        <v>40165</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>307</v>
@@ -4297,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D15" s="7">
-        <v>226366</v>
+        <v>246493</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4312,10 +4312,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I15" s="7">
-        <v>214932</v>
+        <v>239708</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4327,10 +4327,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="N15" s="7">
-        <v>441298</v>
+        <v>486201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4401,10 +4401,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>719</v>
       </c>
       <c r="D17" s="7">
-        <v>40659</v>
+        <v>494960</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>319</v>
@@ -4416,10 +4416,10 @@
         <v>321</v>
       </c>
       <c r="H17" s="7">
-        <v>43</v>
+        <v>741</v>
       </c>
       <c r="I17" s="7">
-        <v>29668</v>
+        <v>483388</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>322</v>
@@ -4431,19 +4431,19 @@
         <v>324</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>1460</v>
       </c>
       <c r="N17" s="7">
-        <v>70328</v>
+        <v>978349</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,49 +4452,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>719</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>494960</v>
+        <v>40659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
-        <v>741</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>483388</v>
+        <v>29668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
-        <v>1460</v>
+        <v>99</v>
       </c>
       <c r="N18" s="7">
-        <v>978349</v>
+        <v>70328</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FE194-E692-497F-8389-1638CC63ECA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567C547-BAB4-4CD8-8E99-2D84CB85C719}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4688,7 +4688,7 @@
         <v>1033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>336</v>
@@ -4703,7 +4703,7 @@
         <v>507</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>336</v>
@@ -4733,49 +4733,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>595</v>
+        <v>25915</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>343</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I5" s="7">
-        <v>505</v>
+        <v>21690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="N5" s="7">
-        <v>1100</v>
+        <v>47605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,46 +4784,46 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>25915</v>
+        <v>595</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>21690</v>
+        <v>505</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>351</v>
       </c>
       <c r="M6" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>47605</v>
+        <v>1100</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>353</v>
@@ -4888,49 +4888,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>16748</v>
+        <v>3754</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1735</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8112</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5490</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M8" s="7">
-        <v>32</v>
-      </c>
-      <c r="N8" s="7">
-        <v>24860</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +4939,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
-        <v>8621</v>
+        <v>31083</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="7">
+        <v>45</v>
+      </c>
+      <c r="I9" s="7">
+        <v>30304</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H9" s="7">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8462</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>89</v>
+      </c>
+      <c r="N9" s="7">
+        <v>61388</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="M9" s="7">
-        <v>24</v>
-      </c>
-      <c r="N9" s="7">
-        <v>17083</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,49 +4990,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>35334</v>
+        <v>3343</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2697</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6040</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H10" s="7">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7">
-        <v>25909</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
-      <c r="N10" s="7">
-        <v>61243</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,10 +5041,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5056,10 +5056,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5071,10 +5071,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N11" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5094,49 +5094,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7">
-        <v>3754</v>
+        <v>16748</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>179</v>
+        <v>377</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8112</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1735</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7">
+        <v>24860</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5490</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,28 +5145,28 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>3343</v>
+        <v>35334</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25909</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2697</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>390</v>
@@ -5175,10 +5175,10 @@
         <v>391</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>6040</v>
+        <v>61243</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>392</v>
@@ -5196,10 +5196,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>31083</v>
+        <v>8621</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>395</v>
@@ -5211,10 +5211,10 @@
         <v>397</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>30304</v>
+        <v>8462</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>398</v>
@@ -5226,10 +5226,10 @@
         <v>400</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>61388</v>
+        <v>17083</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>401</v>
@@ -5247,10 +5247,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5262,10 +5262,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5277,10 +5277,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5351,49 +5351,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>12558</v>
+        <v>92332</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I17" s="7">
-        <v>11665</v>
+        <v>77904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="N17" s="7">
-        <v>24223</v>
+        <v>170236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,40 +5402,40 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>92332</v>
+        <v>12558</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>420</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>77904</v>
+        <v>11665</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>423</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>424</v>
       </c>
       <c r="M18" s="7">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="N18" s="7">
-        <v>170236</v>
+        <v>24223</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>425</v>

--- a/data/trans_orig/IP18B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8150C8E4-7C67-48CE-B428-FF6E2803D3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F51905-21F8-46EF-B333-1DECBAC88F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E769C18C-DF52-48C1-A4A3-2972204A2509}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C3459F8-86AF-4E26-B2A5-A59D44827413}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="507">
   <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2007 (Tasa respuesta: 87,21%)</t>
   </si>
@@ -68,1261 +68,1498 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>Médico general</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>Pediatria</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>23,58%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>16,32%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1570,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1429,39 +1666,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1513,7 +1750,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1624,13 +1861,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1639,6 +1869,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1703,19 +1940,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0903117D-77C2-4A22-AEC7-B5D4A24E92F0}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176742C3-CE2A-4867-B3A1-FCF6567AE28E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1832,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>4571</v>
+        <v>1253</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1847,10 +2104,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4188</v>
+        <v>2218</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1862,10 +2119,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>8759</v>
+        <v>3471</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1883,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>192290</v>
+        <v>103717</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1898,10 +2155,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="I5" s="7">
-        <v>187430</v>
+        <v>97636</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1913,10 +2170,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>572</v>
+        <v>304</v>
       </c>
       <c r="N5" s="7">
-        <v>379721</v>
+        <v>201352</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1934,10 +2191,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>3810</v>
+        <v>3397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1949,34 +2206,34 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>6189</v>
+        <v>1860</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>5258</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>16</v>
-      </c>
-      <c r="N6" s="7">
-        <v>9999</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,102 +2242,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>301</v>
+        <v>163</v>
       </c>
       <c r="D7" s="7">
-        <v>200672</v>
+        <v>108368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I7" s="7">
-        <v>197807</v>
+        <v>101714</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>602</v>
+        <v>318</v>
       </c>
       <c r="N7" s="7">
-        <v>398479</v>
+        <v>210081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>17606</v>
+        <v>9695</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11021</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>14196</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>32</v>
+      </c>
+      <c r="N8" s="7">
+        <v>20716</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="7">
-        <v>47</v>
-      </c>
-      <c r="N8" s="7">
-        <v>31802</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,49 +2346,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="D9" s="7">
-        <v>170040</v>
+        <v>211168</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>315</v>
+      </c>
+      <c r="I9" s="7">
+        <v>210597</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>234</v>
-      </c>
-      <c r="I9" s="7">
-        <v>158345</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>633</v>
+      </c>
+      <c r="N9" s="7">
+        <v>421765</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>491</v>
-      </c>
-      <c r="N9" s="7">
-        <v>328386</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,49 +2397,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>11961</v>
+        <v>13243</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10610</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10339</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>35</v>
+      </c>
+      <c r="N10" s="7">
+        <v>23853</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>34</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22301</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,102 +2448,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="D11" s="7">
-        <v>199608</v>
+        <v>234106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="I11" s="7">
-        <v>182881</v>
+        <v>232228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>572</v>
+        <v>700</v>
       </c>
       <c r="N11" s="7">
-        <v>382489</v>
+        <v>466334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>100230</v>
+        <v>8057</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8822</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>143</v>
-      </c>
-      <c r="I12" s="7">
-        <v>97375</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>16879</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>293</v>
-      </c>
-      <c r="N12" s="7">
-        <v>197604</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2552,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D13" s="7">
-        <v>107013</v>
+        <v>90211</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7">
+        <v>77879</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>150</v>
-      </c>
-      <c r="I13" s="7">
-        <v>101287</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>250</v>
+      </c>
+      <c r="N13" s="7">
+        <v>168090</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="7">
-        <v>311</v>
-      </c>
-      <c r="N13" s="7">
-        <v>208299</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,49 +2603,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>18484</v>
+        <v>18005</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>19310</v>
+        <v>19330</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>56</v>
+      </c>
+      <c r="N14" s="7">
+        <v>37335</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>57</v>
-      </c>
-      <c r="N14" s="7">
-        <v>37794</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,63 +2654,63 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>339</v>
+        <v>174</v>
       </c>
       <c r="D15" s="7">
-        <v>225727</v>
+        <v>116273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="I15" s="7">
-        <v>217972</v>
+        <v>106030</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>661</v>
+        <v>332</v>
       </c>
       <c r="N15" s="7">
-        <v>443698</v>
+        <v>222303</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>122407</v>
+        <v>15250</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -2465,10 +2722,10 @@
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>115759</v>
+        <v>13778</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -2480,10 +2737,10 @@
         <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>238166</v>
+        <v>29028</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -2501,10 +2758,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>706</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7">
-        <v>469344</v>
+        <v>64248</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>106</v>
@@ -2516,34 +2773,34 @@
         <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>668</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>447062</v>
+        <v>60950</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>187</v>
+      </c>
+      <c r="N17" s="7">
+        <v>125198</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="7">
-        <v>1374</v>
-      </c>
-      <c r="N17" s="7">
-        <v>916405</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,49 +2809,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="D18" s="7">
-        <v>34256</v>
+        <v>87762</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>123</v>
+      </c>
+      <c r="I18" s="7">
+        <v>83959</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>55</v>
-      </c>
-      <c r="I18" s="7">
-        <v>35838</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>255</v>
+      </c>
+      <c r="N18" s="7">
+        <v>171721</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="7">
-        <v>107</v>
-      </c>
-      <c r="N18" s="7">
-        <v>70094</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,55 +2860,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>252</v>
+      </c>
+      <c r="D19" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>233</v>
+      </c>
+      <c r="I19" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>485</v>
+      </c>
+      <c r="N19" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7">
+        <v>34256</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="7">
+        <v>55</v>
+      </c>
+      <c r="I20" s="7">
+        <v>35838</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="7">
+        <v>107</v>
+      </c>
+      <c r="N20" s="7">
+        <v>70094</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>706</v>
+      </c>
+      <c r="D21" s="7">
+        <v>469344</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
+        <v>668</v>
+      </c>
+      <c r="I21" s="7">
+        <v>447062</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1374</v>
+      </c>
+      <c r="N21" s="7">
+        <v>916405</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>184</v>
+      </c>
+      <c r="D22" s="7">
+        <v>122407</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="7">
+        <v>170</v>
+      </c>
+      <c r="I22" s="7">
+        <v>115759</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="7">
+        <v>354</v>
+      </c>
+      <c r="N22" s="7">
+        <v>238166</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>942</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>626007</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>893</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>598659</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
         <v>1835</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1224666</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2664,8 +3133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9FEBC6-B001-4E77-9278-216CCD763918}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4124E6-1961-4253-90E1-19BC481799EA}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2681,7 +3150,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2782,49 +3251,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1743</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
-        <v>4277</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="7">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7644</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="7">
-        <v>17</v>
-      </c>
       <c r="N4" s="7">
-        <v>11921</v>
+        <v>3843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,49 +3302,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="D5" s="7">
-        <v>222792</v>
+        <v>141148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>206329</v>
+        <v>138007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
-        <v>624</v>
+        <v>405</v>
       </c>
       <c r="N5" s="7">
-        <v>429121</v>
+        <v>279154</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,49 +3353,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>7360</v>
+        <v>652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>3751</v>
+        <v>2394</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>11112</v>
+        <v>3047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,102 +3404,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="D7" s="7">
-        <v>234430</v>
+        <v>143900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="I7" s="7">
-        <v>217724</v>
+        <v>142144</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>658</v>
+        <v>416</v>
       </c>
       <c r="N7" s="7">
-        <v>452154</v>
+        <v>286044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>15586</v>
+        <v>17674</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>18227</v>
+        <v>10145</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N8" s="7">
-        <v>33813</v>
+        <v>27820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,49 +3508,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="D9" s="7">
-        <v>198207</v>
+        <v>226052</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>189138</v>
+        <v>193149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="N9" s="7">
-        <v>387344</v>
+        <v>419201</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,49 +3559,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>16950</v>
+        <v>14103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>10982</v>
+        <v>19876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>27933</v>
+        <v>33978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,102 +3610,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="D11" s="7">
-        <v>230743</v>
+        <v>257829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>218347</v>
+        <v>223170</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="N11" s="7">
-        <v>449090</v>
+        <v>480999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>91628</v>
+        <v>12114</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="H12" s="7">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>82788</v>
+        <v>10859</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M12" s="7">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>174416</v>
+        <v>22973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,49 +3714,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D13" s="7">
-        <v>134211</v>
+        <v>119179</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I13" s="7">
-        <v>131906</v>
+        <v>126180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="N13" s="7">
-        <v>266117</v>
+        <v>245359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,49 +3765,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>26489</v>
+        <v>19889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7">
-        <v>19845</v>
+        <v>14091</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>46334</v>
+        <v>33980</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,102 +3816,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>371</v>
+        <v>217</v>
       </c>
       <c r="D15" s="7">
-        <v>252329</v>
+        <v>151182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>234538</v>
+        <v>151130</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>704</v>
+        <v>431</v>
       </c>
       <c r="N15" s="7">
-        <v>486868</v>
+        <v>302312</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>111492</v>
+        <v>18912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>108659</v>
+        <v>11831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
-        <v>311</v>
+        <v>46</v>
       </c>
       <c r="N16" s="7">
-        <v>220151</v>
+        <v>30743</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3920,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>787</v>
+        <v>101</v>
       </c>
       <c r="D17" s="7">
-        <v>555210</v>
+        <v>68832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
-        <v>764</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>527372</v>
+        <v>70036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
-        <v>1551</v>
+        <v>200</v>
       </c>
       <c r="N17" s="7">
-        <v>1082583</v>
+        <v>138869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,49 +3971,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
-        <v>50800</v>
+        <v>76847</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="I18" s="7">
-        <v>34578</v>
+        <v>72297</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="N18" s="7">
-        <v>85378</v>
+        <v>149145</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,55 +4022,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7">
+        <v>164591</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>218</v>
+      </c>
+      <c r="I19" s="7">
+        <v>154165</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>460</v>
+      </c>
+      <c r="N19" s="7">
+        <v>318757</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>73</v>
+      </c>
+      <c r="D20" s="7">
+        <v>50800</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="7">
+        <v>50</v>
+      </c>
+      <c r="I20" s="7">
+        <v>34578</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M20" s="7">
+        <v>123</v>
+      </c>
+      <c r="N20" s="7">
+        <v>85378</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>787</v>
+      </c>
+      <c r="D21" s="7">
+        <v>555210</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="7">
+        <v>764</v>
+      </c>
+      <c r="I21" s="7">
+        <v>527372</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1551</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1082583</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>160</v>
+      </c>
+      <c r="D22" s="7">
+        <v>111492</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H22" s="7">
+        <v>151</v>
+      </c>
+      <c r="I22" s="7">
+        <v>108659</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" s="7">
+        <v>311</v>
+      </c>
+      <c r="N22" s="7">
+        <v>220151</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1020</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>717502</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>965</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>670609</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
         <v>1985</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1388112</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3614,8 +4295,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1951881-39C5-49B9-BBDB-EE345091E8AF}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66710CC9-781B-46AB-85AC-F6F3397EBC6B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3631,7 +4312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3732,49 +4413,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>16441</v>
+        <v>1326</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>8556</v>
+        <v>1412</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>24996</v>
+        <v>2738</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,49 +4464,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>181783</v>
+        <v>106629</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="I5" s="7">
-        <v>181093</v>
+        <v>122714</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>569</v>
+        <v>359</v>
       </c>
       <c r="N5" s="7">
-        <v>362877</v>
+        <v>229343</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,49 +4515,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>4525</v>
+        <v>10439</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>4400</v>
+        <v>3352</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>8925</v>
+        <v>13790</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,102 +4566,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7">
-        <v>202749</v>
+        <v>118394</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="I7" s="7">
-        <v>194049</v>
+        <v>127478</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>619</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>396799</v>
+        <v>245872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>35727</v>
+        <v>7343</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>30433</v>
+        <v>10191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>66160</v>
+        <v>17534</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,49 +4670,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="D9" s="7">
-        <v>182409</v>
+        <v>198541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="H9" s="7">
         <v>264</v>
       </c>
       <c r="I9" s="7">
-        <v>171492</v>
+        <v>166359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="M9" s="7">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="N9" s="7">
-        <v>353900</v>
+        <v>364900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +4721,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>8230</v>
+        <v>31742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>13007</v>
+        <v>19742</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7">
-        <v>21237</v>
+        <v>51484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,102 +4772,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="D11" s="7">
-        <v>226366</v>
+        <v>237626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="I11" s="7">
-        <v>214932</v>
+        <v>196292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="N11" s="7">
-        <v>441298</v>
+        <v>433918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>87821</v>
+        <v>9230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="H12" s="7">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>96644</v>
+        <v>11047</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>184465</v>
+        <v>20277</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4876,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D13" s="7">
-        <v>130768</v>
+        <v>129433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I13" s="7">
-        <v>130803</v>
+        <v>125599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M13" s="7">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N13" s="7">
-        <v>261571</v>
+        <v>255032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4927,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>27905</v>
+        <v>30753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>12261</v>
+        <v>35209</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>40165</v>
+        <v>65962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,102 +4978,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>246493</v>
+        <v>169416</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="I15" s="7">
-        <v>239708</v>
+        <v>171855</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>667</v>
+        <v>482</v>
       </c>
       <c r="N15" s="7">
-        <v>486201</v>
+        <v>341271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>139989</v>
+        <v>22760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>135633</v>
+        <v>7018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="N16" s="7">
-        <v>275622</v>
+        <v>29779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,49 +5082,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>719</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>494960</v>
+        <v>60357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>741</v>
+        <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>483388</v>
+        <v>68716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>1460</v>
+        <v>180</v>
       </c>
       <c r="N17" s="7">
-        <v>978349</v>
+        <v>129073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,49 +5133,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7">
-        <v>40659</v>
+        <v>67055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="H18" s="7">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="I18" s="7">
-        <v>29668</v>
+        <v>77330</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="N18" s="7">
-        <v>70328</v>
+        <v>144385</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,55 +5184,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>202</v>
+      </c>
+      <c r="D19" s="7">
+        <v>150172</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>217</v>
+      </c>
+      <c r="I19" s="7">
+        <v>153064</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>419</v>
+      </c>
+      <c r="N19" s="7">
+        <v>303237</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>56</v>
+      </c>
+      <c r="D20" s="7">
+        <v>40659</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="7">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7">
+        <v>29668</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M20" s="7">
+        <v>99</v>
+      </c>
+      <c r="N20" s="7">
+        <v>70328</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>719</v>
+      </c>
+      <c r="D21" s="7">
+        <v>494960</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" s="7">
+        <v>741</v>
+      </c>
+      <c r="I21" s="7">
+        <v>483388</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1460</v>
+      </c>
+      <c r="N21" s="7">
+        <v>978349</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>190</v>
+      </c>
+      <c r="D22" s="7">
+        <v>139989</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" s="7">
+        <v>193</v>
+      </c>
+      <c r="I22" s="7">
+        <v>135633</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M22" s="7">
+        <v>383</v>
+      </c>
+      <c r="N22" s="7">
+        <v>275622</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>965</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>675608</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>648689</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
         <v>1942</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1324298</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4564,8 +5457,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567C547-BAB4-4CD8-8E99-2D84CB85C719}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA60B17-0937-439D-8AEF-4C23260850D2}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4581,7 +5474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4682,49 +5575,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1033</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1539</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,49 +5626,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>25915</v>
+        <v>17319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>21690</v>
+        <v>16331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>47605</v>
+        <v>33650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,46 +5680,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>595</v>
+        <v>352</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
-        <v>505</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
       <c r="N6" s="7">
-        <v>1100</v>
+        <v>352</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>353</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,102 +5728,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2278</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
-        <v>3754</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
       <c r="I8" s="7">
-        <v>1735</v>
+        <v>2402</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>5490</v>
+        <v>4680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +5832,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
-        <v>31083</v>
+        <v>27571</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>30304</v>
+        <v>24309</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="M9" s="7">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N9" s="7">
-        <v>61388</v>
+        <v>51880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,46 +5886,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3343</v>
+        <v>2766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2697</v>
+        <v>1238</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>6040</v>
+        <v>4004</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,99 +5937,99 @@
         <v>53</v>
       </c>
       <c r="D11" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>16748</v>
+        <v>3972</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>8112</v>
+        <v>3254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>24860</v>
+        <v>7227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>205</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,49 +6038,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>35334</v>
+        <v>26962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>25909</v>
+        <v>25646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>61243</v>
+        <v>52608</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,49 +6089,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4125</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1569</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7">
-        <v>8621</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8462</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>17083</v>
+        <v>5694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,102 +6140,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I15" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N15" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>21535</v>
+        <v>6308</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>10354</v>
+        <v>6008</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>31889</v>
+        <v>12316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,49 +6244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>92332</v>
+        <v>20480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>77904</v>
+        <v>11618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="N17" s="7">
-        <v>170236</v>
+        <v>32098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,46 +6298,46 @@
         <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>12558</v>
+        <v>14292</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="H18" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>11665</v>
+        <v>7547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M18" s="7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>24223</v>
+        <v>21839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>427</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,55 +6346,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="7">
+        <v>37</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="7">
+        <v>90</v>
+      </c>
+      <c r="N19" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>12558</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="7">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11665</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M20" s="7">
+        <v>35</v>
+      </c>
+      <c r="N20" s="7">
+        <v>24223</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>144</v>
+      </c>
+      <c r="D21" s="7">
+        <v>92332</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H21" s="7">
+        <v>120</v>
+      </c>
+      <c r="I21" s="7">
+        <v>77904</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M21" s="7">
+        <v>264</v>
+      </c>
+      <c r="N21" s="7">
+        <v>170236</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7">
+        <v>21535</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H22" s="7">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7">
+        <v>10354</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="M22" s="7">
+        <v>42</v>
+      </c>
+      <c r="N22" s="7">
+        <v>31889</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>188</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>126425</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="7">
         <v>153</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>99923</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
         <v>341</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>226348</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F51905-21F8-46EF-B333-1DECBAC88F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86F3F8C-43EC-4AA2-B111-4E2F00DAB108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C3459F8-86AF-4E26-B2A5-A59D44827413}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA8DB88E-D945-4845-9C9D-E0493894198B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="517">
   <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2007 (Tasa respuesta: 87,21%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -89,16 +89,13 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>5,64%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>3,65%</t>
   </si>
   <si>
     <t>Pediatria</t>
@@ -107,28 +104,28 @@
     <t>95,71%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>95,99%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -137,1429 +134,1462 @@
     <t>3,13%</t>
   </si>
   <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2016 (Tasa respuesta: 91,35%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176742C3-CE2A-4867-B3A1-FCF6567AE28E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3524C89-E432-476B-8D86-3CD83E5E9643}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2128,16 +2158,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>156</v>
@@ -2146,13 +2176,13 @@
         <v>103717</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>148</v>
@@ -2161,13 +2191,13 @@
         <v>97636</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>304</v>
@@ -2176,19 +2206,19 @@
         <v>201352</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -2197,13 +2227,13 @@
         <v>3397</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2212,13 +2242,13 @@
         <v>1860</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -2227,13 +2257,13 @@
         <v>5258</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2278,13 @@
         <v>108368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -2263,13 +2293,13 @@
         <v>101714</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>318</v>
@@ -2278,18 +2308,18 @@
         <v>210081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2301,13 +2331,13 @@
         <v>9695</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2316,13 +2346,13 @@
         <v>11021</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -2331,19 +2361,19 @@
         <v>20716</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>318</v>
@@ -2352,13 +2382,13 @@
         <v>211168</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>315</v>
@@ -2367,13 +2397,13 @@
         <v>210597</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>633</v>
@@ -2382,19 +2412,19 @@
         <v>421765</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>20</v>
@@ -2403,13 +2433,13 @@
         <v>13243</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2418,13 +2448,13 @@
         <v>10610</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -2433,13 +2463,13 @@
         <v>23853</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2484,13 @@
         <v>234106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>347</v>
@@ -2469,13 +2499,13 @@
         <v>232228</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>700</v>
@@ -2484,18 +2514,18 @@
         <v>466334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2507,13 +2537,13 @@
         <v>8057</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -2522,13 +2552,13 @@
         <v>8822</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -2537,19 +2567,19 @@
         <v>16879</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>135</v>
@@ -2558,13 +2588,13 @@
         <v>90211</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -2573,13 +2603,13 @@
         <v>77879</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -2588,19 +2618,19 @@
         <v>168090</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>27</v>
@@ -2609,13 +2639,13 @@
         <v>18005</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2624,13 +2654,13 @@
         <v>19330</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -2639,13 +2669,13 @@
         <v>37335</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2690,13 @@
         <v>116273</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>158</v>
@@ -2675,13 +2705,13 @@
         <v>106030</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>332</v>
@@ -2690,18 +2720,18 @@
         <v>222303</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2713,13 +2743,13 @@
         <v>15250</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -2728,13 +2758,13 @@
         <v>13778</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -2743,19 +2773,19 @@
         <v>29028</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>97</v>
@@ -2764,13 +2794,13 @@
         <v>64248</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -2779,13 +2809,13 @@
         <v>60950</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -2794,19 +2824,19 @@
         <v>125198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>132</v>
@@ -2815,13 +2845,13 @@
         <v>87762</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>123</v>
@@ -2830,13 +2860,13 @@
         <v>83959</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -2845,13 +2875,13 @@
         <v>171721</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2896,13 @@
         <v>167260</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>233</v>
@@ -2881,13 +2911,13 @@
         <v>158687</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>485</v>
@@ -2896,13 +2926,13 @@
         <v>325947</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2949,13 @@
         <v>34256</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -2934,13 +2964,13 @@
         <v>35838</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -2949,19 +2979,19 @@
         <v>70094</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>706</v>
@@ -2970,13 +3000,13 @@
         <v>469344</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>668</v>
@@ -2985,13 +3015,13 @@
         <v>447062</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>1374</v>
@@ -3000,19 +3030,19 @@
         <v>916405</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>184</v>
@@ -3021,13 +3051,13 @@
         <v>122407</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -3036,13 +3066,13 @@
         <v>115759</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>354</v>
@@ -3051,13 +3081,13 @@
         <v>238166</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3102,13 @@
         <v>626007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>893</v>
@@ -3087,13 +3117,13 @@
         <v>598659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>1835</v>
@@ -3102,18 +3132,18 @@
         <v>1224666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4124E6-1961-4253-90E1-19BC481799EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49CD328-8BCC-404A-BAC9-E0218A7D4D0C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3150,7 +3180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3257,13 +3287,13 @@
         <v>2100</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3272,13 +3302,13 @@
         <v>1743</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3287,19 +3317,19 @@
         <v>3843</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>200</v>
@@ -3308,13 +3338,13 @@
         <v>141148</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>205</v>
@@ -3323,13 +3353,13 @@
         <v>138007</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -3338,19 +3368,19 @@
         <v>279154</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -3359,13 +3389,13 @@
         <v>652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3374,13 +3404,13 @@
         <v>2394</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3389,13 +3419,13 @@
         <v>3047</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3440,13 @@
         <v>143900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>212</v>
@@ -3425,13 +3455,13 @@
         <v>142144</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>416</v>
@@ -3440,18 +3470,18 @@
         <v>286044</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3463,13 +3493,13 @@
         <v>17674</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -3478,13 +3508,13 @@
         <v>10145</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -3493,19 +3523,19 @@
         <v>27820</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>313</v>
@@ -3514,13 +3544,13 @@
         <v>226052</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>281</v>
@@ -3529,13 +3559,13 @@
         <v>193149</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>594</v>
@@ -3544,19 +3574,19 @@
         <v>419201</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>19</v>
@@ -3565,13 +3595,13 @@
         <v>14103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3580,13 +3610,13 @@
         <v>19876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -3595,13 +3625,13 @@
         <v>33978</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3646,13 @@
         <v>257829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -3631,13 +3661,13 @@
         <v>223170</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>678</v>
@@ -3646,18 +3676,18 @@
         <v>480999</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3669,13 +3699,13 @@
         <v>12114</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -3684,13 +3714,13 @@
         <v>10859</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -3699,19 +3729,19 @@
         <v>22973</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>173</v>
@@ -3720,13 +3750,13 @@
         <v>119179</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -3735,13 +3765,13 @@
         <v>126180</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>352</v>
@@ -3750,19 +3780,19 @@
         <v>245359</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>28</v>
@@ -3771,13 +3801,13 @@
         <v>19889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3786,13 +3816,13 @@
         <v>14091</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3801,13 +3831,13 @@
         <v>33980</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3852,13 @@
         <v>151182</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>214</v>
@@ -3837,13 +3867,13 @@
         <v>151130</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>431</v>
@@ -3852,18 +3882,18 @@
         <v>302312</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3875,7 +3905,7 @@
         <v>18912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>225</v>
@@ -3890,10 +3920,10 @@
         <v>11831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>228</v>
@@ -3917,7 +3947,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>101</v>
@@ -3968,7 +3998,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>112</v>
@@ -4028,13 +4058,13 @@
         <v>164591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -4043,13 +4073,13 @@
         <v>154165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>460</v>
@@ -4058,13 +4088,13 @@
         <v>318757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4126,13 @@
         <v>34578</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -4111,7 +4141,7 @@
         <v>85378</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>256</v>
@@ -4123,7 +4153,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>787</v>
@@ -4138,7 +4168,7 @@
         <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="H21" s="7">
         <v>764</v>
@@ -4147,13 +4177,13 @@
         <v>527372</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>1551</v>
@@ -4162,19 +4192,19 @@
         <v>1082583</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>160</v>
@@ -4183,13 +4213,13 @@
         <v>111492</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -4198,13 +4228,13 @@
         <v>108659</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4213,13 +4243,13 @@
         <v>220151</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4264,13 @@
         <v>717502</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>965</v>
@@ -4249,13 +4279,13 @@
         <v>670609</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>1985</v>
@@ -4264,18 +4294,18 @@
         <v>1388112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66710CC9-781B-46AB-85AC-F6F3397EBC6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A2F8CD-D34F-431E-BD32-AD817714A638}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4312,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4419,13 +4449,13 @@
         <v>1326</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4434,13 +4464,13 @@
         <v>1412</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4449,19 +4479,19 @@
         <v>2738</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>162</v>
@@ -4470,13 +4500,13 @@
         <v>106629</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>197</v>
@@ -4485,13 +4515,13 @@
         <v>122714</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>359</v>
@@ -4512,7 +4542,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>14</v>
@@ -4572,13 +4602,13 @@
         <v>118394</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>204</v>
@@ -4587,13 +4617,13 @@
         <v>127478</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>382</v>
@@ -4602,18 +4632,18 @@
         <v>245872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4628,10 +4658,10 @@
         <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -4658,16 +4688,16 @@
         <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>294</v>
@@ -4676,13 +4706,13 @@
         <v>198541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H9" s="7">
         <v>264</v>
@@ -4691,13 +4721,13 @@
         <v>166359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M9" s="7">
         <v>558</v>
@@ -4706,10 +4736,10 @@
         <v>364900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>314</v>
@@ -4718,7 +4748,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>45</v>
@@ -4778,13 +4808,13 @@
         <v>237626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>309</v>
@@ -4793,13 +4823,13 @@
         <v>196292</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>659</v>
@@ -4808,18 +4838,18 @@
         <v>433918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4837,7 +4867,7 @@
         <v>325</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4846,13 +4876,13 @@
         <v>11047</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -4861,10 +4891,10 @@
         <v>20277</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>153</v>
+        <v>329</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>330</v>
@@ -4873,7 +4903,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>181</v>
@@ -4924,7 +4954,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -4984,13 +5014,13 @@
         <v>169416</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>247</v>
@@ -4999,13 +5029,13 @@
         <v>171855</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>482</v>
@@ -5014,18 +5044,18 @@
         <v>341271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5043,7 +5073,7 @@
         <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5052,13 +5082,13 @@
         <v>7018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -5067,19 +5097,19 @@
         <v>29779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>82</v>
@@ -5088,13 +5118,13 @@
         <v>60357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -5103,13 +5133,13 @@
         <v>68716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -5118,19 +5148,19 @@
         <v>129073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>90</v>
@@ -5139,13 +5169,13 @@
         <v>67055</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>108</v>
@@ -5154,13 +5184,13 @@
         <v>77330</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
@@ -5169,13 +5199,13 @@
         <v>144385</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5220,13 @@
         <v>150172</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>217</v>
@@ -5205,13 +5235,13 @@
         <v>153064</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>419</v>
@@ -5220,13 +5250,13 @@
         <v>303237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5273,13 @@
         <v>40659</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5258,13 +5288,13 @@
         <v>29668</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>99</v>
@@ -5273,19 +5303,19 @@
         <v>70328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>719</v>
@@ -5294,13 +5324,13 @@
         <v>494960</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>741</v>
@@ -5309,13 +5339,13 @@
         <v>483388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>1460</v>
@@ -5324,19 +5354,19 @@
         <v>978349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>190</v>
@@ -5345,13 +5375,13 @@
         <v>139989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -5360,13 +5390,13 @@
         <v>135633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>383</v>
@@ -5375,13 +5405,13 @@
         <v>275622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5426,13 @@
         <v>675608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>977</v>
@@ -5411,13 +5441,13 @@
         <v>648689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>1942</v>
@@ -5426,18 +5456,18 @@
         <v>1324298</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5457,7 +5487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA60B17-0937-439D-8AEF-4C23260850D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F7AD7A-809F-4A07-B6F8-95D3B376E6CF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5474,7 +5504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5584,10 +5614,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>404</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5599,10 +5629,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5614,16 +5644,16 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>37</v>
@@ -5632,13 +5662,13 @@
         <v>17319</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -5647,13 +5677,13 @@
         <v>16331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -5662,19 +5692,19 @@
         <v>33650</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -5683,13 +5713,13 @@
         <v>352</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5701,10 +5731,10 @@
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5713,13 +5743,13 @@
         <v>352</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>194</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5764,13 @@
         <v>17671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -5749,13 +5779,13 @@
         <v>16331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5764,18 +5794,18 @@
         <v>34002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5787,13 +5817,13 @@
         <v>2278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5802,13 +5832,13 @@
         <v>2402</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>420</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5817,19 +5847,19 @@
         <v>4680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>416</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>46</v>
@@ -5838,13 +5868,13 @@
         <v>27571</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H9" s="7">
         <v>36</v>
@@ -5853,13 +5883,13 @@
         <v>24309</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M9" s="7">
         <v>82</v>
@@ -5868,19 +5898,19 @@
         <v>51880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -5889,13 +5919,13 @@
         <v>2766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5904,13 +5934,13 @@
         <v>1238</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5919,13 +5949,13 @@
         <v>4004</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5970,13 @@
         <v>32614</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5955,13 +5985,13 @@
         <v>27950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -5970,18 +6000,18 @@
         <v>60564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5993,13 +6023,13 @@
         <v>3972</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6008,13 +6038,13 @@
         <v>3254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -6023,19 +6053,19 @@
         <v>7227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7">
         <v>34</v>
@@ -6044,13 +6074,13 @@
         <v>26962</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -6059,13 +6089,13 @@
         <v>25646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -6074,19 +6104,19 @@
         <v>52608</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>5</v>
@@ -6095,13 +6125,13 @@
         <v>4125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6110,13 +6140,13 @@
         <v>1569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6125,13 +6155,13 @@
         <v>5694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6176,13 @@
         <v>35060</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
@@ -6161,13 +6191,13 @@
         <v>30469</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -6176,18 +6206,18 @@
         <v>65529</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6199,13 +6229,13 @@
         <v>6308</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6214,13 +6244,13 @@
         <v>6008</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -6229,19 +6259,19 @@
         <v>12316</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>27</v>
@@ -6250,13 +6280,13 @@
         <v>20480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -6265,13 +6295,13 @@
         <v>11618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -6280,19 +6310,19 @@
         <v>32098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -6301,13 +6331,13 @@
         <v>14292</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -6316,13 +6346,13 @@
         <v>7547</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -6331,13 +6361,13 @@
         <v>21839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>108</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6382,13 @@
         <v>41081</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -6367,13 +6397,13 @@
         <v>25173</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -6382,13 +6412,13 @@
         <v>66253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6435,13 @@
         <v>12558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -6420,13 +6450,13 @@
         <v>11665</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>69</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -6435,19 +6465,19 @@
         <v>24223</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7">
         <v>144</v>
@@ -6456,13 +6486,13 @@
         <v>92332</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -6471,13 +6501,13 @@
         <v>77904</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="M21" s="7">
         <v>264</v>
@@ -6486,19 +6516,19 @@
         <v>170236</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="7">
         <v>27</v>
@@ -6507,13 +6537,13 @@
         <v>21535</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>508</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -6522,13 +6552,13 @@
         <v>10354</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -6537,13 +6567,13 @@
         <v>31889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6588,13 @@
         <v>126425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>153</v>
@@ -6573,13 +6603,13 @@
         <v>99923</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>341</v>
@@ -6588,18 +6618,18 @@
         <v>226348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
